--- a/Regression 2015-12-16.xlsx
+++ b/Regression 2015-12-16.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>IE</t>
   </si>
@@ -218,14 +218,20 @@
     </r>
   </si>
   <si>
-    <t>TreeViewTests/testAPI</t>
+    <t>TreeViewTests/testAPI/sap_test</t>
+  </si>
+  <si>
+    <t>TreeViewTests/testAPI/dojo_test</t>
+  </si>
+  <si>
+    <t>TreeViewTests/testAPI/html_test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +251,13 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,12 +301,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -320,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -346,52 +364,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -717,7 +834,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -725,7 +842,7 @@
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -733,7 +850,7 @@
       <c r="A6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -744,10 +861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,436 +873,612 @@
     <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15"/>
       <c r="I3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
       <c r="I4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>15</v>
       </c>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>5</v>
-      </c>
+      <c r="D15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="D18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+    </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="C24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="E28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="C30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="C32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="D33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="14" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+    </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F37" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F38" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="20" t="s">
+      <c r="C39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="E39" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="18" t="s">
         <v>58</v>
       </c>
+      <c r="B41" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A29:F29"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1"/>
     <hyperlink ref="B15" r:id="rId2"/>

--- a/Regression 2015-12-16.xlsx
+++ b/Regression 2015-12-16.xlsx
@@ -301,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,12 +322,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +427,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -445,19 +439,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -476,9 +463,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -494,13 +478,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,579 +873,579 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="15"/>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12"/>
       <c r="I3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
       <c r="I4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="15"/>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="15"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="15"/>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="15"/>
+      <c r="D15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="15"/>
+      <c r="D16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="15"/>
+      <c r="D18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="15"/>
+      <c r="C24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="15"/>
+      <c r="E28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="22" t="s">
+      <c r="C30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="15"/>
+      <c r="C32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="15"/>
+      <c r="D33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="22" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="26"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="23" t="s">
+      <c r="C39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="15"/>
+      <c r="E39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="15"/>
+      <c r="C41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Regression 2015-12-16.xlsx
+++ b/Regression 2015-12-16.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="No Web Engine" sheetId="1" r:id="rId1"/>
     <sheet name="Web Engine Involve" sheetId="2" r:id="rId2"/>
+    <sheet name="2015.12.18 Summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
   <si>
     <t>IE</t>
   </si>
@@ -60,9 +61,6 @@
   </si>
   <si>
     <t>http://tomas-bayer.com</t>
-  </si>
-  <si>
-    <t>Stuck</t>
   </si>
   <si>
     <t>EditBoxTests/testAPI/testAPIForHtml</t>
@@ -225,6 +223,16 @@
   </si>
   <si>
     <t>TreeViewTests/testAPI/html_test</t>
+  </si>
+  <si>
+    <t>**FAILED**Error performing GetURL</t>
+  </si>
+  <si>
+    <t>Stuck[known problem, 
+keep it]</t>
+  </si>
+  <si>
+    <t>AutoItTests</t>
   </si>
 </sst>
 </file>
@@ -332,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -389,6 +397,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -419,6 +453,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -427,24 +487,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -460,9 +520,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -487,15 +544,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -804,60 +880,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,43 +967,44 @@
     <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="F1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -918,23 +1020,23 @@
         <v>5</v>
       </c>
       <c r="F3" s="12"/>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="I4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -951,16 +1053,16 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -977,8 +1079,8 @@
       </c>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -990,13 +1092,15 @@
       <c r="D8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="E8" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="12"/>
@@ -1004,44 +1108,44 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>7</v>
@@ -1057,24 +1161,24 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="D15" s="10" t="s">
         <v>5</v>
       </c>
@@ -1083,15 +1187,15 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>45</v>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>5</v>
@@ -1102,90 +1206,90 @@
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>25</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>26</v>
+      <c r="A20" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>27</v>
+      <c r="A22" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>28</v>
+      <c r="A23" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>29</v>
+      <c r="A24" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>7</v>
@@ -1202,40 +1306,40 @@
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>31</v>
+      <c r="A26" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>32</v>
+      <c r="A27" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>33</v>
+      <c r="A28" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>7</v>
@@ -1243,82 +1347,82 @@
       <c r="C28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="B30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>39</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="D33" s="10" t="s">
         <v>5</v>
       </c>
@@ -1328,16 +1432,16 @@
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>50</v>
+      <c r="A35" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1345,45 +1449,45 @@
       <c r="E35" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>51</v>
+      <c r="F35" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>53</v>
+      <c r="A37" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>54</v>
+      <c r="A38" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>55</v>
+      <c r="A39" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>7</v>
@@ -1391,8 +1495,8 @@
       <c r="C39" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>56</v>
+      <c r="D39" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>5</v>
@@ -1400,16 +1504,16 @@
       <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>58</v>
+      <c r="A41" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>7</v>
@@ -1426,27 +1530,27 @@
       <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>59</v>
+      <c r="A42" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>60</v>
+      <c r="A43" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,4 +1585,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Regression 2015-12-16.xlsx
+++ b/Regression 2015-12-16.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="No Web Engine" sheetId="1" r:id="rId1"/>
     <sheet name="Web Engine Involve" sheetId="2" r:id="rId2"/>
     <sheet name="2015.12.18 Summary" sheetId="3" r:id="rId3"/>
+    <sheet name="2015.12.28 Problems Happen List" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
   <si>
     <t>IE</t>
   </si>
@@ -234,12 +235,27 @@
   <si>
     <t>AutoItTests</t>
   </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>On going</t>
+  </si>
+  <si>
+    <t>Has added Comments</t>
+  </si>
+  <si>
+    <t>No issue, but failed before</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,8 +324,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +374,21 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -480,14 +532,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -556,6 +611,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,13 +627,18 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -882,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,11 +969,11 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -920,8 +981,8 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
@@ -932,8 +993,8 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -957,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,12 +1057,12 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -1025,12 +1086,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
       <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
@@ -1054,12 +1115,12 @@
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
@@ -1112,12 +1173,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
@@ -1162,12 +1223,12 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
@@ -1206,12 +1267,12 @@
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -1256,12 +1317,12 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
@@ -1306,12 +1367,12 @@
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
@@ -1356,12 +1417,12 @@
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1432,12 +1493,12 @@
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
@@ -1454,12 +1515,12 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1504,12 +1565,12 @@
       <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1619,11 +1680,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -1643,11 +1704,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
@@ -1667,11 +1728,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -1691,11 +1752,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -1726,4 +1787,201 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Regression 2015-12-16.xlsx
+++ b/Regression 2015-12-16.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="69">
   <si>
     <t>IE</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>No issue, but failed before</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
   </si>
 </sst>
 </file>
@@ -627,9 +630,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -1019,7 +1022,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1797,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,6 +1811,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1827,132 +1833,132 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G3" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="34" t="s">
+      <c r="D5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>36</v>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="36" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1972,16 +1978,17 @@
         <v>5</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="36" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>